--- a/Documentos/Boost.xlsx
+++ b/Documentos/Boost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CB14A3-C0EB-42E7-B18C-A012569EF915}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FF83F1-9169-4620-911D-9F2746BD1F48}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>DPU01M-12</t>
   </si>
@@ -203,12 +203,6 @@
     <t>https://mexico.newark.com/multicomp-pro/mcap115018047a-221mu/inductor-220uh-20/dp/74R9844?st=inductor</t>
   </si>
   <si>
-    <t>https://www.mouser.mx/ProductDetail/Bel-Signal-Transformer/HCTI-330-5.2?qs=gt1LBUVyoHkxpRWD%252B2tBfg%3D%3D</t>
-  </si>
-  <si>
-    <t>HCTI-330-5.2</t>
-  </si>
-  <si>
     <t>MUR3060WT</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>INB OUTB</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -279,13 +270,34 @@
   </si>
   <si>
     <t>https://mexico.newark.com/infineon/ipw60r090cfd7xksa1/mosfet-600v-25a-150deg-c-125w/dp/71AC0409?st=mosfet%2025a</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>1N4937G</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/onsemi/1n4937g/fast-recovery-diode-1a-600v-axial/dp/42K2841?st=1n4937</t>
+  </si>
+  <si>
+    <t>Regulador</t>
+  </si>
+  <si>
+    <t>L7805CD2T-TR</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/stmicroelectronics/l7805cd2t-tr/linear-voltage-regulator/dp/95M4314?st=l7805</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -300,6 +312,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -343,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +391,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -688,719 +709,861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A196790E-2C96-43EB-B4BF-5CCD571C6100}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="153.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="153.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
+      <c r="B4" s="1">
+        <f>A4*5+1</f>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.85</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F21" si="0">E4*A4</f>
-        <v>2.85</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <f>F4*B4</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B36" si="0">A5*5+1</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5*B5</f>
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G36" si="1">F6*B6</f>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.01</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.34</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F10" si="1">E5*A5</f>
-        <v>8.68</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.159</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.159</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>54.179999999999993</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F10*B10</f>
+        <v>46.81</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.51</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>9.06</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>48.78</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="F11" s="1">
-        <f>E11*A11</f>
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F15" s="1">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1640000000000001</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F16" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="1">
+        <f>F16*B16</f>
+        <v>2.968</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F17" s="1">
         <v>21.33</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>21.33</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>127.97999999999999</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="1">
         <v>0.191</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.191</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.191</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2809999999999997</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>7.48</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>7.48</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>44.88</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4320000000000004</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>12.54</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>8.58</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>12.66</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="F27" s="1">
-        <f>E27*A27</f>
-        <v>4.2</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="F28" s="1">
-        <f>E28*A28</f>
-        <v>1.43</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="F29" s="1">
-        <f>E29*A29</f>
-        <v>2.11</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F33" s="1">
         <v>0.39900000000000002</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3.77</v>
-      </c>
-      <c r="F33" s="1">
-        <f>E33*A33</f>
-        <v>3.77</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F35" s="1">
         <v>4.54</v>
       </c>
-      <c r="F34" s="1">
-        <f>E34*A34</f>
-        <v>4.54</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>27.240000000000002</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F35" s="1">
-        <f>E35*A35</f>
-        <v>1.82</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F36" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3469999999999995</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="F38" s="1">
-        <f>SUM(F4:F36)</f>
-        <v>88.823000000000022</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="G39" s="1">
+        <f>SUM(G4:G37)</f>
+        <v>444.97499999999997</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
-    <hyperlink ref="G28" r:id="rId2" xr:uid="{BD9A5C25-4C8A-4A99-A3FB-80E7BFFE98D1}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
-    <hyperlink ref="G33" r:id="rId4" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
-    <hyperlink ref="G34" r:id="rId5" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
-    <hyperlink ref="G19" r:id="rId7" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
-    <hyperlink ref="G32" r:id="rId8" xr:uid="{E4457014-6968-4D18-8FB0-1F6D7026192A}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
-    <hyperlink ref="G35" r:id="rId10" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
-    <hyperlink ref="G18" r:id="rId13" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
-    <hyperlink ref="G6" r:id="rId14" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
-    <hyperlink ref="G14" r:id="rId16" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
-    <hyperlink ref="G5" r:id="rId17" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{B6F54C02-C15A-457E-8F16-D45CC922CF28}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{E8D89D93-30E4-491F-A642-EDF654538A1F}"/>
-    <hyperlink ref="G16" r:id="rId20" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
-    <hyperlink ref="G29" r:id="rId21" xr:uid="{A81F4896-C4DB-443B-AE36-1DAA85CBE6FC}"/>
-    <hyperlink ref="G11" r:id="rId22" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
-    <hyperlink ref="G7" r:id="rId23" xr:uid="{CED22B9C-0BBC-4339-8C38-4F5D3A7A3120}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
+    <hyperlink ref="H29" r:id="rId2" xr:uid="{BD9A5C25-4C8A-4A99-A3FB-80E7BFFE98D1}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
+    <hyperlink ref="H34" r:id="rId4" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
+    <hyperlink ref="H35" r:id="rId5" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
+    <hyperlink ref="H21" r:id="rId6" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
+    <hyperlink ref="H20" r:id="rId7" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
+    <hyperlink ref="H33" r:id="rId8" xr:uid="{E4457014-6968-4D18-8FB0-1F6D7026192A}"/>
+    <hyperlink ref="H22" r:id="rId9" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
+    <hyperlink ref="H36" r:id="rId10" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
+    <hyperlink ref="H18" r:id="rId12" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
+    <hyperlink ref="H6" r:id="rId14" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
+    <hyperlink ref="H15" r:id="rId16" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
+    <hyperlink ref="H5" r:id="rId17" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
+    <hyperlink ref="H8" r:id="rId18" xr:uid="{E8D89D93-30E4-491F-A642-EDF654538A1F}"/>
+    <hyperlink ref="H17" r:id="rId19" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
+    <hyperlink ref="H30" r:id="rId20" xr:uid="{A81F4896-C4DB-443B-AE36-1DAA85CBE6FC}"/>
+    <hyperlink ref="H11" r:id="rId21" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
+    <hyperlink ref="H7" r:id="rId22" xr:uid="{CED22B9C-0BBC-4339-8C38-4F5D3A7A3120}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{9ED8DC44-08D8-4D40-9EE9-528696ADC1F9}"/>
+    <hyperlink ref="H23" r:id="rId24" xr:uid="{88CFFBFE-178C-4A72-8710-EBD7BE53B048}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Boost.xlsx
+++ b/Documentos/Boost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="821" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FF83F1-9169-4620-911D-9F2746BD1F48}"/>
+  <xr:revisionPtr revIDLastSave="887" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D5DB83-05FD-4A9D-9D3C-98234024821F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
-  <si>
-    <t>DPU01M-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>NEWARK</t>
   </si>
@@ -74,12 +71,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>ECQ-E1684JF3</t>
-  </si>
-  <si>
-    <t>https://www.mouser.mx/ProductDetail/Panasonic/ECQ-E1684JF3?qs=9ouE0kzBZ2oaVOGIkkE58g%3D%3D</t>
-  </si>
-  <si>
     <t>24.243.2</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>C410C200K3G5TA</t>
   </si>
   <si>
-    <t>https://www.mouser.mx/ProductDetail/KEMET/C410C200K3G5TA?qs=sGAEpiMZZMsh%252B1woXyUXj5g6XBUDY5kHNhd7C1PBn%2Fg%3D</t>
-  </si>
-  <si>
     <t>https://mexico.newark.com/multicomp-pro/2213s-10g/board-board-connector-header-10/dp/08N6791?st=cabezal%20pin%20tarjeta%20a%20tarjeta</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
     <t>https://mexico.newark.com/multicomp-pro/mcap115018047a-221mu/inductor-220uh-20/dp/74R9844?st=inductor</t>
   </si>
   <si>
-    <t>MUR3060WT</t>
-  </si>
-  <si>
     <t>https://mexico.newark.com/multicomp-pro/mur3060wt/fast-recovery-diode-15a-600v-to/dp/17T4226?st=mur</t>
   </si>
   <si>
@@ -281,16 +266,28 @@
     <t>https://mexico.newark.com/onsemi/1n4937g/fast-recovery-diode-1a-600v-axial/dp/42K2841?st=1n4937</t>
   </si>
   <si>
-    <t>Regulador</t>
-  </si>
-  <si>
-    <t>L7805CD2T-TR</t>
-  </si>
-  <si>
-    <t>https://mexico.newark.com/stmicroelectronics/l7805cd2t-tr/linear-voltage-regulator/dp/95M4314?st=l7805</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Comprado</t>
+  </si>
+  <si>
+    <t>MUR1560G</t>
+  </si>
+  <si>
+    <t>MGJ2D051515SC</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/multicomp/mc0805n200j101a2-54mm/ceramic-capacitor-20pf-100v-c0g/dp/46P6462?st=capacitores%20cer%C3%A1micos%2020pf</t>
+  </si>
+  <si>
+    <t>R82EC4100DQ70J</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/kemet/r82ec4100dq70j/capacitor-polyester-film-film/dp/94M8816?ost=r82ec4100dq70j</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -361,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +395,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,861 +722,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A196790E-2C96-43EB-B4BF-5CCD571C6100}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="55.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="153.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="153.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <f>A4*4+1</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>A4*5+1</f>
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
+        <v>79</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>2.85</v>
       </c>
-      <c r="G4" s="1">
-        <f>F4*B4</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B36" si="0">A5*5+1</f>
-        <v>11</v>
+        <f t="shared" ref="B5:B35" si="0">A5*4+1</f>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G5" s="1">
-        <f>F5*B5</f>
-        <v>9.8450000000000006</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="1">
+        <f>G5*B5</f>
+        <v>8.0549999999999997</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6*B6</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7*B7</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.159</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6:G36" si="1">F6*B6</f>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <f>G8*B8</f>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9*B9</f>
+        <v>45.15</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.01</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>54.179999999999993</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11*B11</f>
+        <v>40.650000000000006</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.51</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10*B10</f>
-        <v>46.81</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G12" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12*B12</f>
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <f>A13*4+1</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>48.78</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3340000000000001</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13*B13</f>
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1640000000000001</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1">
+        <v>46</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G16" s="1">
-        <f>F16*B16</f>
-        <v>2.968</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
+        <f>G17*B17</f>
+        <v>1.7489999999999999</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f>A18*4</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
         <v>21.33</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>127.97999999999999</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f>G18*B18</f>
+        <v>85.32</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="H19" s="1">
+        <f>G19*B19</f>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.191</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="H20" s="1">
+        <f>G20*B20</f>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2809999999999997</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>44.88</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.13200000000000001</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4320000000000004</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.48</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <f>G23*B23</f>
+        <v>2.7720000000000002</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <f>A24*4+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="1">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>12.54</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>8.58</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="11"/>
+      <c r="I28" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="1">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
         <v>2.11</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>12.66</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f>G30*B30</f>
+        <v>10.549999999999999</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <f>G31*B31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
+        <f>G32*B32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.39900000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.50700000000000001</v>
+        <v>80</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0419999999999998</v>
-      </c>
-      <c r="H34" s="6" t="s">
+        <v>9.85</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <f>G35*B35</f>
+        <v>3.5189999999999997</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4.54</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>27.240000000000002</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>4.3469999999999995</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="G39" s="1">
-        <f>SUM(G4:G37)</f>
-        <v>444.97499999999997</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="5"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="H38" s="1">
+        <f>SUM(H4:H36)</f>
+        <v>209.47000000000003</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
-    <hyperlink ref="H29" r:id="rId2" xr:uid="{BD9A5C25-4C8A-4A99-A3FB-80E7BFFE98D1}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
-    <hyperlink ref="H34" r:id="rId4" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
-    <hyperlink ref="H35" r:id="rId5" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
-    <hyperlink ref="H21" r:id="rId6" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
-    <hyperlink ref="H20" r:id="rId7" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
-    <hyperlink ref="H33" r:id="rId8" xr:uid="{E4457014-6968-4D18-8FB0-1F6D7026192A}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
-    <hyperlink ref="H36" r:id="rId10" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
-    <hyperlink ref="H16" r:id="rId11" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
-    <hyperlink ref="H19" r:id="rId13" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
-    <hyperlink ref="H6" r:id="rId14" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
-    <hyperlink ref="H9" r:id="rId15" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
-    <hyperlink ref="H15" r:id="rId16" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
-    <hyperlink ref="H5" r:id="rId17" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
-    <hyperlink ref="H8" r:id="rId18" xr:uid="{E8D89D93-30E4-491F-A642-EDF654538A1F}"/>
-    <hyperlink ref="H17" r:id="rId19" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
-    <hyperlink ref="H30" r:id="rId20" xr:uid="{A81F4896-C4DB-443B-AE36-1DAA85CBE6FC}"/>
-    <hyperlink ref="H11" r:id="rId21" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
-    <hyperlink ref="H7" r:id="rId22" xr:uid="{CED22B9C-0BBC-4339-8C38-4F5D3A7A3120}"/>
-    <hyperlink ref="H12" r:id="rId23" xr:uid="{9ED8DC44-08D8-4D40-9EE9-528696ADC1F9}"/>
-    <hyperlink ref="H23" r:id="rId24" xr:uid="{88CFFBFE-178C-4A72-8710-EBD7BE53B048}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
+    <hyperlink ref="I33" r:id="rId3" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
+    <hyperlink ref="I34" r:id="rId4" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
+    <hyperlink ref="I22" r:id="rId5" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
+    <hyperlink ref="I21" r:id="rId6" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
+    <hyperlink ref="I35" r:id="rId8" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
+    <hyperlink ref="I20" r:id="rId11" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
+    <hyperlink ref="I6" r:id="rId12" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
+    <hyperlink ref="I5" r:id="rId15" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
+    <hyperlink ref="I8" r:id="rId16" xr:uid="{E8D89D93-30E4-491F-A642-EDF654538A1F}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
+    <hyperlink ref="I30" r:id="rId18" xr:uid="{A81F4896-C4DB-443B-AE36-1DAA85CBE6FC}"/>
+    <hyperlink ref="I11" r:id="rId19" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
+    <hyperlink ref="I7" r:id="rId20" xr:uid="{CED22B9C-0BBC-4339-8C38-4F5D3A7A3120}"/>
+    <hyperlink ref="I12" r:id="rId21" xr:uid="{9ED8DC44-08D8-4D40-9EE9-528696ADC1F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
